--- a/dotnet/lista8/zadanie2.5.1/bin/Debug/excel.xlsx
+++ b/dotnet/lista8/zadanie2.5.1/bin/Debug/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22918"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1770C009-161E-49AB-B833-10534CCDB825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC97EA5C-38CA-45E5-A2B7-439B425A471C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -459,7 +459,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -470,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -481,7 +481,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -492,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -503,7 +503,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
